--- a/data/Ethanol_Run3.xlsx
+++ b/data/Ethanol_Run3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alsglobal-my.sharepoint.com/personal/lee_kennedy_alsglobal_com/Documents/Documents/GitHub/Curve_Optimising/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{35EA94E5-E778-4FBB-A119-91D55410F2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBCFAF21-DF09-4EE0-BBF2-B5152D6186D5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{35EA94E5-E778-4FBB-A119-91D55410F2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{674EEFFF-C3ED-4A89-8017-D39F3B9F465F}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18705" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
+    <workbookView xWindow="1785" yWindow="1500" windowWidth="18705" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -32,13 +32,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F4F4545C-6E56-4B62-BD3D-EEB0A0F2C66E}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F4F4545C-6E56-4B62-BD3D-EEB0A0F2C66E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Yes or No for forcing through zero</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Standard</t>
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Force_Zero</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Analyte</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -74,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +130,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lee Kennedy" id="{EAF7AA5C-93A3-4F62-9281-E294485CC6D8}" userId="S::lee.kennedy@alsglobal.com::dfd77e9b-1ffa-435c-98f6-ae04aa0c9869" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,33 +433,59 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2022-03-18T04:04:05.29" personId="{EAF7AA5C-93A3-4F62-9281-E294485CC6D8}" id="{F4F4545C-6E56-4B62-BD3D-EEB0A0F2C66E}">
+    <text>Yes or No for forcing through zero</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C9A00C-24EB-41AA-851F-3A7934A86DAE}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C9A00C-24EB-41AA-851F-3A7934A86DAE}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
         <v>4.6814661704014576E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -422,7 +493,7 @@
         <v>9.1121741677243004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -430,7 +501,7 @@
         <v>0.4828558435652569</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -438,7 +509,7 @@
         <v>0.99720564187181393</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -446,7 +517,7 @@
         <v>3.0553659215886939</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -454,7 +525,7 @@
         <v>4.9610125706979442</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -462,7 +533,7 @@
         <v>6.831918909572936</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -472,5 +543,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Ethanol_Run3.xlsx
+++ b/data/Ethanol_Run3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alsglobal-my.sharepoint.com/personal/lee_kennedy_alsglobal_com/Documents/Documents/GitHub/Curve_Optimising/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{35EA94E5-E778-4FBB-A119-91D55410F2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{674EEFFF-C3ED-4A89-8017-D39F3B9F465F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{35EA94E5-E778-4FBB-A119-91D55410F2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D6E40DF-D300-4031-8D5B-3B3D237AF1B5}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1500" windowWidth="18705" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18705" windowHeight="10020" xr2:uid="{9C7C1EB0-081C-497F-8D88-9633EABB6608}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -68,13 +68,13 @@
     <t>Analyte</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Ethanol</t>
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -476,13 +476,13 @@
         <v>4.6814661704014576E-2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
